--- a/data/160 and 333.xlsx
+++ b/data/160 and 333.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75DE234A-29BE-4FD4-8A14-6069F71F0669}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB699F7A-A6DC-4404-9B06-B8F73C1A9CD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="160 Spear " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Capex </t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>160 Spear</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling &amp; Base</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling</t>
+  </si>
+  <si>
+    <t>Test Name</t>
   </si>
 </sst>
 </file>
@@ -594,7 +618,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -669,6 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -830,14 +855,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -875,7 +896,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -981,7 +1002,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1123,7 +1144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1131,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:N45"/>
+  <dimension ref="A2:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1818,7 @@
       <c r="M32" s="22"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1812,7 +1833,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1827,7 +1848,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1842,7 +1863,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1857,7 +1878,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1872,7 +1893,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1887,7 +1908,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1902,7 +1923,7 @@
       <c r="M39" s="12"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
         <v>20</v>
@@ -1919,7 +1940,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>20</v>
@@ -1938,7 +1959,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1953,10 +1974,456 @@
       <c r="M42" s="12"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="126" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="18">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>35000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48">
+        <v>0.04</v>
+      </c>
+      <c r="J48">
+        <v>0.04</v>
+      </c>
+      <c r="K48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="18">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>120000</v>
+      </c>
+      <c r="H49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49">
+        <v>0.01</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="18">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50">
+        <v>650000</v>
+      </c>
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50">
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>85000</v>
+      </c>
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>-0.5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="18">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>1000000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52">
+        <v>0.02</v>
+      </c>
+      <c r="J52">
+        <v>0.02</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="23"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="18">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>10000000</v>
+      </c>
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53">
+        <v>0.05</v>
+      </c>
+      <c r="J53">
+        <v>0.05</v>
+      </c>
+      <c r="K53" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="23"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="18">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54">
+        <v>2750000</v>
+      </c>
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="23"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="18">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>1500000</v>
+      </c>
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="18">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>230000</v>
+      </c>
+      <c r="H56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56">
+        <v>0.02</v>
+      </c>
+      <c r="J56">
+        <v>0.02</v>
+      </c>
+      <c r="K56" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="18">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>1000000</v>
+      </c>
+      <c r="H57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1967,7 +2434,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18:M42" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F42 D18:D43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F42 D18:D43 O48:O57 B48:B57" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1981,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D9F0D-2B14-4150-932F-0DCDDE43FCB8}">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/data/160 and 333.xlsx
+++ b/data/160 and 333.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB699F7A-A6DC-4404-9B06-B8F73C1A9CD8}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF2AFDC-189E-461B-A2A6-3E627A5EACFE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="160 Spear " sheetId="1" r:id="rId1"/>
     <sheet name="333 Bush" sheetId="4" r:id="rId2"/>
+    <sheet name="Mable Plaza" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160 Spear '!$A$17:$N$25</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="83">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -291,28 +292,46 @@
     <t xml:space="preserve"> Capex </t>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>160 Spear</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling &amp; Base</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling</t>
-  </si>
-  <si>
-    <t>Test Name</t>
+    <t>Exclusion Flag (add an "x" for any secondary intervention that is mutually exclusive to a primary intervention)</t>
+  </si>
+  <si>
+    <t>(Increase)/Decrease in Up-Front Cost, excluding available rebates</t>
+  </si>
+  <si>
+    <t>Change in Electricity Consumption (kWh)</t>
+  </si>
+  <si>
+    <t>Change in Steam Consumption (kLbs)</t>
+  </si>
+  <si>
+    <t>(Increase)/Decrease in Opex (O&amp;M)</t>
+  </si>
+  <si>
+    <t>Rebates Available? Please note any rebates available through utilities, state energy offices, or federal programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Retro commissioning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rtrocommisson every 10 years </t>
+  </si>
+  <si>
+    <t>? Need to add.</t>
+  </si>
+  <si>
+    <t>Wet seal glass joints</t>
+  </si>
+  <si>
+    <t>On-Site Renewables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Façade Air Stopping </t>
+  </si>
+  <si>
+    <t>4. Solar</t>
+  </si>
+  <si>
+    <t>671 kW system</t>
   </si>
 </sst>
 </file>
@@ -618,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -693,7 +712,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -853,6 +876,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,36 +1179,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:P57"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1218,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -1207,7 +1234,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -1216,7 +1243,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1224,7 +1251,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1232,7 +1259,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -1240,7 +1267,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1248,7 +1275,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1256,7 +1283,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -1264,7 +1291,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -1272,7 +1299,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1280,7 +1307,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1288,7 +1315,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
     </row>
-    <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1332,7 +1359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -1355,7 +1382,7 @@
         <v>61280.293085420599</v>
       </c>
       <c r="H18" s="17">
-        <v>61943.629234032298</v>
+        <v>65.92349999999999</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>66</v>
@@ -1376,39 +1403,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" s="20">
-        <v>120000</v>
-      </c>
-      <c r="F19" s="20" t="s">
+        <v>85000</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="17">
-        <v>13590.859625511899</v>
+        <v>-39088.421263962002</v>
       </c>
       <c r="H19" s="17">
-        <v>26675.143319999999</v>
+        <v>-133.3757166</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K19" s="19">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>67</v>
@@ -1417,86 +1444,86 @@
         <v>16</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="20">
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" s="17">
-        <v>84122.974507392195</v>
+        <v>14228.121804160501</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>11.324511083000001</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J20" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K20" s="19">
-        <v>2028</v>
-      </c>
-      <c r="L20" s="26">
-        <v>-25000</v>
+        <v>2023</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="M20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E21" s="20">
-        <v>85000</v>
-      </c>
-      <c r="F21" s="24" t="s">
+        <v>10000000</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="17">
-        <v>-39088.421263962002</v>
+        <v>8110.0294283715202</v>
       </c>
       <c r="H21" s="17">
-        <v>133.3757166</v>
+        <v>45.071554110340003</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K21" s="19">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>67</v>
@@ -1508,83 +1535,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="20">
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G22" s="17">
-        <v>14228.121804160501</v>
+        <v>84122.974507392195</v>
       </c>
       <c r="H22" s="17">
-        <v>18386.175023379099</v>
+        <v>0</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K22" s="19">
-        <v>2023</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>67</v>
+        <v>2028</v>
+      </c>
+      <c r="L22" s="26">
+        <v>-25000</v>
       </c>
       <c r="M22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="20">
-        <v>10000000</v>
-      </c>
-      <c r="F23" s="20" t="s">
+        <v>230000</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="17">
-        <v>8110.0294283715202</v>
+        <v>1781.0131034328699</v>
       </c>
       <c r="H23" s="17">
-        <v>10480.1197633261</v>
+        <v>44.170123028133204</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J23" s="19">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K23" s="19">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>67</v>
@@ -1593,59 +1620,59 @@
         <v>16</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E24" s="20">
-        <v>2750000</v>
-      </c>
-      <c r="F24" s="24" t="s">
+        <v>120000</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="G24" s="17">
-        <v>-238865.81497372501</v>
+        <v>13590.859625511899</v>
       </c>
       <c r="H24" s="17">
-        <v>2852.6643887400201</v>
+        <v>0</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K24" s="19">
-        <v>2030</v>
-      </c>
-      <c r="L24" s="26">
-        <v>-35000</v>
+        <v>2035</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>8</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>35</v>
@@ -1654,16 +1681,16 @@
         <v>23</v>
       </c>
       <c r="E25" s="20">
-        <v>1500000</v>
+        <v>2750000</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G25" s="17">
-        <v>-836030.35240803903</v>
+        <v>-238865.81497372501</v>
       </c>
       <c r="H25" s="17">
-        <v>2852.6643887400201</v>
+        <v>2164.3360283785269</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>66</v>
@@ -1672,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="19">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="L25" s="26">
-        <v>-5000</v>
+        <v>-35000</v>
       </c>
       <c r="M25" s="22" t="s">
         <v>16</v>
@@ -1684,757 +1711,63 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E26" s="20">
-        <v>230000</v>
+        <v>1500000</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="17">
-        <v>1781.0131034328699</v>
+        <v>-836030.35240803903</v>
       </c>
       <c r="H26" s="17">
-        <v>20331.4323408526</v>
+        <v>2164.3360283785269</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J26" s="19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K26" s="19">
-        <v>2030</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>67</v>
+        <v>2026</v>
+      </c>
+      <c r="L26" s="26">
+        <v>-5000</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-    </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="126" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="18">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48">
-        <v>35000</v>
-      </c>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48">
-        <v>0.04</v>
-      </c>
-      <c r="J48">
-        <v>0.04</v>
-      </c>
-      <c r="K48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="18">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49">
-        <v>120000</v>
-      </c>
-      <c r="H49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49">
-        <v>0.01</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="18">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50">
-        <v>650000</v>
-      </c>
-      <c r="H50" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50">
-        <v>0.1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>66</v>
-      </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="23"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="18">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51">
-        <v>85000</v>
-      </c>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51">
-        <v>0.5</v>
-      </c>
-      <c r="J51">
-        <v>-0.5</v>
-      </c>
-      <c r="K51" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="18">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52">
-        <v>1000000</v>
-      </c>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52">
-        <v>0.02</v>
-      </c>
-      <c r="J52">
-        <v>0.02</v>
-      </c>
-      <c r="K52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="23"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="18">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53">
-        <v>10000000</v>
-      </c>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53">
-        <v>0.05</v>
-      </c>
-      <c r="J53">
-        <v>0.05</v>
-      </c>
-      <c r="K53" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="18">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54">
-        <v>2750000</v>
-      </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54">
-        <v>-1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="18">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55">
-        <v>1500000</v>
-      </c>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="18">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56">
-        <v>230000</v>
-      </c>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-      <c r="I56">
-        <v>0.02</v>
-      </c>
-      <c r="J56">
-        <v>0.02</v>
-      </c>
-      <c r="K56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="18">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57">
-        <v>1000000</v>
-      </c>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>-1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>66</v>
-      </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:N26">
+    <sortCondition ref="A19:A26"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B4:G15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18:M42" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18:M26" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F42 D18:D43 O48:O57 B48:B57" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F26 D18:D26" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2448,34 +1781,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D9F0D-2B14-4150-932F-0DCDDE43FCB8}">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -2485,7 +1818,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2501,7 +1834,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -2510,7 +1843,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -2518,7 +1851,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -2526,7 +1859,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -2534,7 +1867,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -2542,7 +1875,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -2550,7 +1883,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -2558,7 +1891,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -2566,7 +1899,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -2574,7 +1907,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -2582,7 +1915,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
     </row>
-    <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2626,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -2649,7 +1982,7 @@
         <v>25570.275000000001</v>
       </c>
       <c r="H18" s="17">
-        <v>56093.537199999999</v>
+        <v>229.18170000000001</v>
       </c>
       <c r="I18" s="17">
         <v>0</v>
@@ -2670,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -2693,7 +2026,7 @@
         <v>24291.760999999999</v>
       </c>
       <c r="H19" s="17">
-        <v>53288.8603</v>
+        <v>0</v>
       </c>
       <c r="I19" s="17">
         <v>0</v>
@@ -2714,7 +2047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -2758,7 +2091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>4</v>
       </c>
@@ -2781,7 +2114,7 @@
         <v>9230.8690000000006</v>
       </c>
       <c r="H21" s="17">
-        <v>20249.766899999999</v>
+        <v>74.102083000000007</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
@@ -2802,7 +2135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>5</v>
       </c>
@@ -2825,7 +2158,7 @@
         <v>45231.26</v>
       </c>
       <c r="H22" s="17">
-        <v>99223.857900000003</v>
+        <v>1834.0265542500001</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
@@ -2846,7 +2179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -2869,7 +2202,7 @@
         <v>15409.472</v>
       </c>
       <c r="H23" s="17">
-        <v>0</v>
+        <v>27.510398313750002</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
@@ -2890,7 +2223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>7</v>
       </c>
@@ -2913,7 +2246,7 @@
         <v>-10123.34</v>
       </c>
       <c r="H24" s="17">
-        <v>120.8984</v>
+        <v>164.23707793308751</v>
       </c>
       <c r="I24" s="17">
         <v>0</v>
@@ -2934,7 +2267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>8</v>
       </c>
@@ -2978,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>9</v>
       </c>
@@ -3022,7 +2355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>10</v>
       </c>
@@ -3067,7 +2400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>11</v>
       </c>
@@ -3090,7 +2423,7 @@
         <v>-24296.017</v>
       </c>
       <c r="H28" s="17">
-        <v>290.15609999999998</v>
+        <v>5310.332186503163</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
@@ -3111,7 +2444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3126,7 +2459,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3141,7 +2474,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>20</v>
@@ -3158,7 +2491,7 @@
       <c r="M31" s="12"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
         <v>20</v>
@@ -3177,7 +2510,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -3210,4 +2543,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F6CEA7-99D9-44D8-9F4D-4079FB4153DE}">
+  <dimension ref="D6:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:18" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="36"/>
+      <c r="E7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9">
+        <f>J12*0.05</f>
+        <v>104167.65000000001</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>-187143.84</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>10</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2025</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="36"/>
+      <c r="E8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-160000</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="10">
+        <v>-20024.744146549401</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>-26.124573110959084</v>
+      </c>
+      <c r="M8" s="8">
+        <v>30</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2026</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="36"/>
+      <c r="E9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="9">
+        <f>671*2000</f>
+        <v>1342000</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10">
+        <v>-78857.142857142899</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2026</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1560</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>290287</v>
+      </c>
+      <c r="J12" s="37">
+        <v>2083353</v>
+      </c>
+      <c r="K12">
+        <v>0.03</v>
+      </c>
+      <c r="L12" s="38">
+        <f>K12*J12</f>
+        <v>62500.59</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="J13" s="38">
+        <f>J12-L12</f>
+        <v>2020852.41</v>
+      </c>
+      <c r="K13">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="38">
+        <f>K13*J13</f>
+        <v>20208.524099999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P9" xr:uid="{5C97F3CF-8482-4D12-9A81-9B5F62D5F47B}">
+      <formula1>$Q$11:$Q$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I9" xr:uid="{DC1C58D5-0673-45CE-8DDB-F0E7F8D2F2EA}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G9" xr:uid="{B21373D8-EBAF-49BF-9AA8-6D424D712AB4}">
+      <formula1>$Q$9:$Q$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/160 and 333.xlsx
+++ b/data/160 and 333.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF2AFDC-189E-461B-A2A6-3E627A5EACFE}"/>
+  <xr:revisionPtr revIDLastSave="513" documentId="8_{77D0D91E-1EB6-4B0F-A708-1FD88462194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9D6D11-8ED8-4E47-8E3A-89D1DFAB9B63}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" activeTab="2" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="160 Spear " sheetId="1" r:id="rId1"/>
     <sheet name="333 Bush" sheetId="4" r:id="rId2"/>
-    <sheet name="Mable Plaza" sheetId="5" r:id="rId3"/>
+    <sheet name="Maple Plaza" sheetId="5" r:id="rId3"/>
+    <sheet name="Aboretum" sheetId="6" r:id="rId4"/>
+    <sheet name="Brickyard" sheetId="7" r:id="rId5"/>
+    <sheet name="Collective" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160 Spear '!$A$17:$N$25</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -333,18 +336,73 @@
   <si>
     <t>671 kW system</t>
   </si>
+  <si>
+    <t>Gross Square Footage - Building ONLY (from ESPM)</t>
+  </si>
+  <si>
+    <t>Annual Electricity Use, kWh (2 Year Average)</t>
+  </si>
+  <si>
+    <t>Annual Electricity Use, kbtu (2 Year Average)</t>
+  </si>
+  <si>
+    <t>Annual Natural Gas or Oil Use, MMBtu (2 Year Average)</t>
+  </si>
+  <si>
+    <t>Annual Natural Gas Use, kBtu (2 Year Average)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace with electric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Film </t>
+  </si>
+  <si>
+    <t>Controls Optimization S/S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDD + Optimun S/S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Solar Film </t>
+  </si>
+  <si>
+    <t>4. Controls Optimization S/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Cooking Equipment </t>
+  </si>
+  <si>
+    <t>6. Solar</t>
+  </si>
+  <si>
+    <t>MMBTU</t>
+  </si>
+  <si>
+    <t>kWH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +468,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -631,13 +701,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -685,6 +826,11 @@
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="7" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -712,16 +858,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,47 +1354,47 @@
       <selection activeCell="J18" sqref="J18:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -1234,88 +1403,88 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="17" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="17" spans="1:14" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1359,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -1403,7 +1572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -1447,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -1491,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>4</v>
       </c>
@@ -1535,7 +1704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>5</v>
       </c>
@@ -1579,7 +1748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -1623,7 +1792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>7</v>
       </c>
@@ -1667,7 +1836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>8</v>
       </c>
@@ -1711,7 +1880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>8</v>
       </c>
@@ -1782,50 +1951,50 @@
   <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -1834,88 +2003,88 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="17" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="17" spans="1:14" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -2003,7 +2172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -2047,7 +2216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -2091,7 +2260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>4</v>
       </c>
@@ -2135,7 +2304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>5</v>
       </c>
@@ -2179,7 +2348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -2223,7 +2392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>7</v>
       </c>
@@ -2267,7 +2436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>8</v>
       </c>
@@ -2311,7 +2480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>9</v>
       </c>
@@ -2355,7 +2524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>10</v>
       </c>
@@ -2400,7 +2569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>11</v>
       </c>
@@ -2444,7 +2613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2459,7 +2628,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -2474,7 +2643,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>20</v>
@@ -2491,7 +2660,7 @@
       <c r="M31" s="12"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
         <v>20</v>
@@ -2510,7 +2679,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2547,36 +2716,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F6CEA7-99D9-44D8-9F4D-4079FB4153DE}">
-  <dimension ref="D6:R13"/>
+  <dimension ref="D6:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:18" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:18" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>3</v>
@@ -2618,8 +2788,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="36"/>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D7" s="27"/>
       <c r="E7" s="19" t="s">
         <v>75</v>
       </c>
@@ -2630,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="9">
-        <f>J12*0.05</f>
+        <f>J15*0.05</f>
         <v>104167.65000000001</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -2664,9 +2834,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D8" s="36"/>
-      <c r="E8" s="19" t="s">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D8" s="27"/>
+      <c r="E8" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2709,91 +2879,303 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D9" s="36"/>
-      <c r="E9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="8" t="s">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D9" s="48"/>
+      <c r="E9" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9">
+        <v>120000</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D10" s="48"/>
+      <c r="E10" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9">
+        <v>120000</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D11" s="48"/>
+      <c r="E11" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="9">
+        <v>60000</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D12" s="27"/>
+      <c r="E12" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H12" s="9">
         <f>671*2000</f>
         <v>1342000</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J12" s="10">
         <v>-78857.142857142899</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N12" s="8">
         <v>2026</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O12" s="11">
         <v>1560</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D12">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="E14" s="46"/>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D15">
         <v>290287</v>
       </c>
-      <c r="J12" s="37">
+      <c r="E15" s="46"/>
+      <c r="I15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="28">
         <v>2083353</v>
       </c>
-      <c r="K12">
+      <c r="K15" s="54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="29">
+        <f>K15*J15</f>
+        <v>10416.764999999999</v>
+      </c>
+      <c r="M15" s="29">
+        <f>J26</f>
+        <v>1194.56</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="I16" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="29">
+        <f>J15-L15</f>
+        <v>2072936.2350000001</v>
+      </c>
+      <c r="K16" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="29">
+        <f>K16*J16</f>
+        <v>20729.362350000003</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="29">
+        <f>J16-L16</f>
+        <v>2052206.87265</v>
+      </c>
+      <c r="K17" s="54">
         <v>0.03</v>
       </c>
-      <c r="L12" s="38">
-        <f>K12*J12</f>
-        <v>62500.59</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="J13" s="38">
-        <f>J12-L12</f>
-        <v>2020852.41</v>
-      </c>
-      <c r="K13">
-        <f>0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="L13" s="38">
-        <f>K13*J13</f>
-        <v>20208.524099999999</v>
+      <c r="L17" s="29">
+        <f>K17*J17</f>
+        <v>61566.206179499997</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I18" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I19" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="25" spans="7:12" ht="93" x14ac:dyDescent="0.35">
+      <c r="G25" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G26" s="42">
+        <v>290287</v>
+      </c>
+      <c r="H26" s="43">
+        <v>2083353.19</v>
+      </c>
+      <c r="I26" s="44">
+        <v>7108696.1602863092</v>
+      </c>
+      <c r="J26" s="42">
+        <v>1194.56</v>
+      </c>
+      <c r="K26" s="45">
+        <v>1194560</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <f>K26/J26</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P9" xr:uid="{5C97F3CF-8482-4D12-9A81-9B5F62D5F47B}">
-      <formula1>$Q$11:$Q$12</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G7:G8 G10" xr:uid="{B21373D8-EBAF-49BF-9AA8-6D424D712AB4}">
+      <formula1>$Q$12:$Q$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I9" xr:uid="{DC1C58D5-0673-45CE-8DDB-F0E7F8D2F2EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P12" xr:uid="{5C97F3CF-8482-4D12-9A81-9B5F62D5F47B}">
+      <formula1>$Q$14:$Q$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I12" xr:uid="{DC1C58D5-0673-45CE-8DDB-F0E7F8D2F2EA}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G9" xr:uid="{B21373D8-EBAF-49BF-9AA8-6D424D712AB4}">
-      <formula1>$Q$9:$Q$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9" xr:uid="{34503105-389E-4D11-8C5F-D0876F415743}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F8B663-64CF-47AC-933A-F989826A4EE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F36C8-C005-4995-87D0-4254039CDD7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD670E9-1AB7-475B-A49E-BBC06B465E1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>